--- a/09_BienesAmbientalesYServiciosPublicos/P0903/P0903.xlsx
+++ b/09_BienesAmbientalesYServiciosPublicos/P0903/P0903.xlsx
@@ -218,7 +218,7 @@
     <t>"BS01.xlsx", disponible en https://github.com/INECC-PCCS/01_Dmine/tree/master/00_Parametros/BS01</t>
   </si>
   <si>
-    <t>https://github.com/INECC-PCCS/01_Dmine/tree/master/09_BienesAmbientalesYServiciosPublicos/P0902</t>
+    <t>https://github.com/INECC-PCCS/01_Dmine/tree/master/09_BienesAmbientalesYServiciosPublicos/P0903</t>
   </si>
   <si>
     <t>Sin Notas</t>

--- a/09_BienesAmbientalesYServiciosPublicos/P0903/P0903.xlsx
+++ b/09_BienesAmbientalesYServiciosPublicos/P0903/P0903.xlsx
@@ -269,70 +269,70 @@
     <t>Hectareas de Superficie Reforestada</t>
   </si>
   <si>
-    <t>Superficie reforestada (hectáreas) en el periodo de 1994 a 2014</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 1994</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 1995</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 1996</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 1997</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 1998</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 1999</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2000</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2001</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2002</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2003</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2004</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2005</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2006</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2007</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2008</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2009</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2010</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2011</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2012</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2013</t>
-  </si>
-  <si>
-    <t>Superficie reforestada (hectáreas) en 2014</t>
+    <t>Superficie reforestada (Kilómetros cuadrados) en el periodo de 1994 a 2014</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 1994</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 1995</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 1996</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 1997</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 1998</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 1999</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2000</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2001</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2002</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2003</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2004</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2005</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2006</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2007</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2008</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2009</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2010</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2011</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2012</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2013</t>
+  </si>
+  <si>
+    <t>Superficie reforestada (Kilómetros cuadrados) en 2014</t>
   </si>
   <si>
     <t>Subsistema en el cual esta clasificada la ciudad de acuerdo a su población:
